--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>887324.5</v>
+        <v>1273398.87</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126760.64</v>
+        <v>106116.57</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181568.03</v>
+        <v>181201.94</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>480657.67</v>
+        <v>479613.71</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94582.00999999999</v>
+        <v>95734.37</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43675.19</v>
+        <v>42764.59</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4827.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78023.7</v>
+        <v>77195.94</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,57 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3990.45</v>
+        <v>3890.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2110.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>227504.12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2814.83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5087.81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>155480.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,148 +436,195 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273398.87</v>
+        <v>66305.12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66310.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106116.57</v>
+        <v>379164.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>380068.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181201.94</v>
+        <v>5118.43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5069.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>479613.71</v>
+        <v>226412.52</v>
+      </c>
+      <c r="C5" t="n">
+        <v>227152.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95734.37</v>
+        <v>2621.53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2476.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42764.59</v>
+        <v>2444.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2273.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>95586.11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>94080.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77195.94</v>
+        <v>42696.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43792.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3890.31</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2110.7</v>
+        <v>76822.37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>77173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>227504.12</v>
+        <v>153302.57</v>
+      </c>
+      <c r="C12" t="n">
+        <v>152776.93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2814.83</v>
+        <v>4026.31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3930.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5087.81</v>
+        <v>87875.07000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>87925.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155480.55</v>
+        <v>1054500.78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1055105.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,183 +443,151 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66305.12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>66310.58</v>
+        <v>1141443.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379164.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>380068.65</v>
+        <v>87803.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5118.43</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5069.15</v>
+        <v>66310.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226412.52</v>
-      </c>
-      <c r="C5" t="n">
-        <v>227152.92</v>
+        <v>380068.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2621.53</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2476.34</v>
+        <v>86338.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2444.92</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2273.61</v>
+        <v>5069.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95586.11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>94080.63</v>
+        <v>2273.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42696.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43792.85</v>
+        <v>227152.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+        <v>2476.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76822.37</v>
-      </c>
-      <c r="C11" t="n">
-        <v>77173</v>
+        <v>94080.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>153302.57</v>
-      </c>
-      <c r="C12" t="n">
-        <v>152776.93</v>
+        <v>43792.85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4026.31</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3930.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87875.07000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>87925.47</v>
+        <v>77173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1054500.78</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1055105.59</v>
+        <v>152776.93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3930.93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,155 +439,197 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1141443.82</v>
+        <v>66310.58</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66612.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87803.37</v>
+        <v>380068.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>378929.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66310.58</v>
+        <v>86338.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86191.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380068.65</v>
+        <v>5069.15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5104.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86338.23</v>
-      </c>
+        <v>2273.61</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5069.15</v>
-      </c>
+        <v>227152.92</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2273.61</v>
-      </c>
+        <v>2476.34</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227152.92</v>
-      </c>
+        <v>94080.63</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2476.34</v>
+        <v>43792.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43890.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94080.63</v>
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43792.85</v>
+        <v>77173</v>
+      </c>
+      <c r="C12" t="n">
+        <v>76472.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152776.93</v>
+      </c>
+      <c r="C13" t="n">
+        <v>156377.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77173</v>
+        <v>3930.93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4090.78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>152776.93</v>
+        <v>87803.37</v>
+      </c>
+      <c r="C15" t="n">
+        <v>90852.25999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3930.93</v>
+        <v>1141443.82</v>
+      </c>
+      <c r="C16" t="n">
+        <v>817670.3199999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>66612.98</v>
       </c>
+      <c r="D2" t="n">
+        <v>66786.24000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>378929.83</v>
       </c>
+      <c r="D3" t="n">
+        <v>378941.76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>86191.5</v>
       </c>
+      <c r="D4" t="n">
+        <v>86455.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>5104.76</v>
       </c>
+      <c r="D5" t="n">
+        <v>5146.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
         <v>2273.61</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2562.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -518,6 +538,9 @@
         <v>227152.92</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>227107.52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -529,6 +552,9 @@
         <v>2476.34</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2800.97</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -540,6 +566,9 @@
         <v>94080.63</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>100391.34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -553,6 +582,9 @@
       <c r="C10" t="n">
         <v>43890.4</v>
       </c>
+      <c r="D10" t="n">
+        <v>42873.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -566,6 +598,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -579,6 +614,9 @@
       <c r="C12" t="n">
         <v>76472.61</v>
       </c>
+      <c r="D12" t="n">
+        <v>77433.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -592,6 +630,9 @@
       <c r="C13" t="n">
         <v>156377.46</v>
       </c>
+      <c r="D13" t="n">
+        <v>153415.74</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -605,6 +646,9 @@
       <c r="C14" t="n">
         <v>4090.78</v>
       </c>
+      <c r="D14" t="n">
+        <v>4082.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -618,6 +662,9 @@
       <c r="C15" t="n">
         <v>90852.25999999999</v>
       </c>
+      <c r="D15" t="n">
+        <v>88307.47</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -630,6 +677,9 @@
       </c>
       <c r="C16" t="n">
         <v>817670.3199999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1147997.1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>66786.24000000001</v>
       </c>
+      <c r="E2" t="n">
+        <v>66541.41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>378941.76</v>
       </c>
+      <c r="E3" t="n">
+        <v>380072.65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>86455.14</v>
       </c>
+      <c r="E4" t="n">
+        <v>86025.00999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -512,6 +526,9 @@
       </c>
       <c r="D5" t="n">
         <v>5146.41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5079.12</v>
       </c>
     </row>
     <row r="6">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>2562.29</v>
       </c>
+      <c r="E6" t="n">
+        <v>2419.71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -541,6 +561,9 @@
       <c r="D7" t="n">
         <v>227107.52</v>
       </c>
+      <c r="E7" t="n">
+        <v>227127.82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -555,6 +578,9 @@
       <c r="D8" t="n">
         <v>2800.97</v>
       </c>
+      <c r="E8" t="n">
+        <v>2620.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -569,6 +595,9 @@
       <c r="D9" t="n">
         <v>100391.34</v>
       </c>
+      <c r="E9" t="n">
+        <v>101932.84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -585,6 +614,9 @@
       <c r="D10" t="n">
         <v>42873.52</v>
       </c>
+      <c r="E10" t="n">
+        <v>42989.77</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -601,6 +633,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -617,6 +652,9 @@
       <c r="D12" t="n">
         <v>77433.5</v>
       </c>
+      <c r="E12" t="n">
+        <v>77551.84</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -633,6 +671,7 @@
       <c r="D13" t="n">
         <v>153415.74</v>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -649,6 +688,9 @@
       <c r="D14" t="n">
         <v>4082.67</v>
       </c>
+      <c r="E14" t="n">
+        <v>3953.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -665,6 +707,9 @@
       <c r="D15" t="n">
         <v>88307.47</v>
       </c>
+      <c r="E15" t="n">
+        <v>83026.10000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -680,6 +725,9 @@
       </c>
       <c r="D16" t="n">
         <v>1147997.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>996313.21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>66541.41</v>
       </c>
+      <c r="F2" t="n">
+        <v>66953.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>380072.65</v>
       </c>
+      <c r="F3" t="n">
+        <v>379282.26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>86025.00999999999</v>
       </c>
+      <c r="F4" t="n">
+        <v>86172.39999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -529,6 +543,9 @@
       </c>
       <c r="E5" t="n">
         <v>5079.12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5067.72</v>
       </c>
     </row>
     <row r="6">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>2419.71</v>
       </c>
+      <c r="F6" t="n">
+        <v>2363.74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,6 +584,9 @@
       <c r="E7" t="n">
         <v>227127.82</v>
       </c>
+      <c r="F7" t="n">
+        <v>226540.75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +604,9 @@
       <c r="E8" t="n">
         <v>2620.01</v>
       </c>
+      <c r="F8" t="n">
+        <v>2505.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -598,6 +624,9 @@
       <c r="E9" t="n">
         <v>101932.84</v>
       </c>
+      <c r="F9" t="n">
+        <v>102838.63</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +646,9 @@
       <c r="E10" t="n">
         <v>42989.77</v>
       </c>
+      <c r="F10" t="n">
+        <v>43834.81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -636,6 +668,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -655,6 +690,9 @@
       <c r="E12" t="n">
         <v>77551.84</v>
       </c>
+      <c r="F12" t="n">
+        <v>77340.64999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -672,6 +710,7 @@
         <v>153415.74</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -691,6 +730,9 @@
       <c r="E14" t="n">
         <v>3953.03</v>
       </c>
+      <c r="F14" t="n">
+        <v>3863.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -710,6 +752,9 @@
       <c r="E15" t="n">
         <v>83026.10000000001</v>
       </c>
+      <c r="F15" t="n">
+        <v>83063.63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -728,6 +773,9 @@
       </c>
       <c r="E16" t="n">
         <v>996313.21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>996763.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>66953.53</v>
       </c>
+      <c r="G2" t="n">
+        <v>66767.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>379282.26</v>
       </c>
+      <c r="G3" t="n">
+        <v>380642.24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>86172.39999999999</v>
       </c>
+      <c r="G4" t="n">
+        <v>86045.23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -546,6 +560,9 @@
       </c>
       <c r="F5" t="n">
         <v>5067.72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5179.5</v>
       </c>
     </row>
     <row r="6">
@@ -567,6 +584,9 @@
       <c r="F6" t="n">
         <v>2363.74</v>
       </c>
+      <c r="G6" t="n">
+        <v>2388.51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -587,6 +607,9 @@
       <c r="F7" t="n">
         <v>226540.75</v>
       </c>
+      <c r="G7" t="n">
+        <v>226823.64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +630,9 @@
       <c r="F8" t="n">
         <v>2505.85</v>
       </c>
+      <c r="G8" t="n">
+        <v>2497.47</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -627,6 +653,9 @@
       <c r="F9" t="n">
         <v>102838.63</v>
       </c>
+      <c r="G9" t="n">
+        <v>110954.58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +678,9 @@
       <c r="F10" t="n">
         <v>43834.81</v>
       </c>
+      <c r="G10" t="n">
+        <v>43186</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -671,6 +703,9 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -693,6 +728,9 @@
       <c r="F12" t="n">
         <v>77340.64999999999</v>
       </c>
+      <c r="G12" t="n">
+        <v>77219.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -711,6 +749,7 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +772,9 @@
       <c r="F14" t="n">
         <v>3863.25</v>
       </c>
+      <c r="G14" t="n">
+        <v>3966.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -755,6 +797,9 @@
       <c r="F15" t="n">
         <v>83063.63</v>
       </c>
+      <c r="G15" t="n">
+        <v>83805.84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -776,6 +821,9 @@
       </c>
       <c r="F16" t="n">
         <v>996763.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1005670.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>66767.23</v>
       </c>
+      <c r="H2" t="n">
+        <v>66533.88</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>380642.24</v>
       </c>
+      <c r="H3" t="n">
+        <v>379489.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>86045.23</v>
       </c>
+      <c r="H4" t="n">
+        <v>86511.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>5179.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5132.75</v>
       </c>
     </row>
     <row r="6">
@@ -587,6 +604,9 @@
       <c r="G6" t="n">
         <v>2388.51</v>
       </c>
+      <c r="H6" t="n">
+        <v>2453.55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -610,6 +630,9 @@
       <c r="G7" t="n">
         <v>226823.64</v>
       </c>
+      <c r="H7" t="n">
+        <v>226460.26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +656,9 @@
       <c r="G8" t="n">
         <v>2497.47</v>
       </c>
+      <c r="H8" t="n">
+        <v>2566.32</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -656,6 +682,9 @@
       <c r="G9" t="n">
         <v>110954.58</v>
       </c>
+      <c r="H9" t="n">
+        <v>112327.93</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +710,9 @@
       <c r="G10" t="n">
         <v>43186</v>
       </c>
+      <c r="H10" t="n">
+        <v>43995.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -706,6 +738,9 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -730,6 +765,9 @@
       </c>
       <c r="G12" t="n">
         <v>77219.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>77331.94</v>
       </c>
     </row>
     <row r="13">
@@ -750,6 +788,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -775,6 +814,9 @@
       <c r="G14" t="n">
         <v>3966.38</v>
       </c>
+      <c r="H14" t="n">
+        <v>4084.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -800,6 +842,9 @@
       <c r="G15" t="n">
         <v>83805.84</v>
       </c>
+      <c r="H15" t="n">
+        <v>83907.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -824,6 +869,9 @@
       </c>
       <c r="G16" t="n">
         <v>1005670.03</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1006887.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>66533.88</v>
       </c>
+      <c r="I2" t="n">
+        <v>66157.52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>379489.78</v>
       </c>
+      <c r="I3" t="n">
+        <v>379889.42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>86511.42</v>
       </c>
+      <c r="I4" t="n">
+        <v>86071.14999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -580,6 +594,9 @@
       </c>
       <c r="H5" t="n">
         <v>5132.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5054.77</v>
       </c>
     </row>
     <row r="6">
@@ -607,6 +624,9 @@
       <c r="H6" t="n">
         <v>2453.55</v>
       </c>
+      <c r="I6" t="n">
+        <v>2438.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -633,6 +653,9 @@
       <c r="H7" t="n">
         <v>226460.26</v>
       </c>
+      <c r="I7" t="n">
+        <v>227306.75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +682,9 @@
       <c r="H8" t="n">
         <v>2566.32</v>
       </c>
+      <c r="I8" t="n">
+        <v>2562.19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -685,6 +711,9 @@
       <c r="H9" t="n">
         <v>112327.93</v>
       </c>
+      <c r="I9" t="n">
+        <v>111112.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +742,9 @@
       <c r="H10" t="n">
         <v>43995.24</v>
       </c>
+      <c r="I10" t="n">
+        <v>42785.27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -741,6 +773,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>756.38</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -768,6 +803,9 @@
       </c>
       <c r="H12" t="n">
         <v>77331.94</v>
+      </c>
+      <c r="I12" t="n">
+        <v>76689.94</v>
       </c>
     </row>
     <row r="13">
@@ -789,6 +827,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -817,6 +856,9 @@
       <c r="H14" t="n">
         <v>4084.57</v>
       </c>
+      <c r="I14" t="n">
+        <v>4094.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -845,6 +887,9 @@
       <c r="H15" t="n">
         <v>83907.3</v>
       </c>
+      <c r="I15" t="n">
+        <v>83743.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -872,6 +917,9 @@
       </c>
       <c r="H16" t="n">
         <v>1006887.64</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1004917.93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>66157.52</v>
       </c>
+      <c r="J2" t="n">
+        <v>66529.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>379889.42</v>
       </c>
+      <c r="J3" t="n">
+        <v>380616.28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>86071.14999999999</v>
       </c>
+      <c r="J4" t="n">
+        <v>86185.49000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -597,6 +611,9 @@
       </c>
       <c r="I5" t="n">
         <v>5054.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5081.91</v>
       </c>
     </row>
     <row r="6">
@@ -627,6 +644,9 @@
       <c r="I6" t="n">
         <v>2438.24</v>
       </c>
+      <c r="J6" t="n">
+        <v>2533.62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -656,6 +676,9 @@
       <c r="I7" t="n">
         <v>227306.75</v>
       </c>
+      <c r="J7" t="n">
+        <v>226837.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +708,9 @@
       <c r="I8" t="n">
         <v>2562.19</v>
       </c>
+      <c r="J8" t="n">
+        <v>2599.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -714,6 +740,9 @@
       <c r="I9" t="n">
         <v>111112.04</v>
       </c>
+      <c r="J9" t="n">
+        <v>112648.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +774,9 @@
       <c r="I10" t="n">
         <v>42785.27</v>
       </c>
+      <c r="J10" t="n">
+        <v>43704.72</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -776,6 +808,9 @@
       <c r="I11" t="n">
         <v>756.38</v>
       </c>
+      <c r="J11" t="n">
+        <v>742.22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -806,6 +841,9 @@
       </c>
       <c r="I12" t="n">
         <v>76689.94</v>
+      </c>
+      <c r="J12" t="n">
+        <v>77154.67999999999</v>
       </c>
     </row>
     <row r="13">
@@ -828,6 +866,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -859,6 +898,9 @@
       <c r="I14" t="n">
         <v>4094.26</v>
       </c>
+      <c r="J14" t="n">
+        <v>3848.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -890,6 +932,9 @@
       <c r="I15" t="n">
         <v>83743.16</v>
       </c>
+      <c r="J15" t="n">
+        <v>84040.17999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -920,6 +965,9 @@
       </c>
       <c r="I16" t="n">
         <v>1004917.93</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1008482.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>66529.39</v>
       </c>
+      <c r="K2" t="n">
+        <v>66324.53999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>380616.28</v>
       </c>
+      <c r="K3" t="n">
+        <v>378741.67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>86185.49000000001</v>
       </c>
+      <c r="K4" t="n">
+        <v>86092.92999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -614,6 +628,9 @@
       </c>
       <c r="J5" t="n">
         <v>5081.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5145.6</v>
       </c>
     </row>
     <row r="6">
@@ -647,6 +664,9 @@
       <c r="J6" t="n">
         <v>2533.62</v>
       </c>
+      <c r="K6" t="n">
+        <v>2129.52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -679,6 +699,9 @@
       <c r="J7" t="n">
         <v>226837.17</v>
       </c>
+      <c r="K7" t="n">
+        <v>227153.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +734,9 @@
       <c r="J8" t="n">
         <v>2599.23</v>
       </c>
+      <c r="K8" t="n">
+        <v>2700.61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -743,6 +769,9 @@
       <c r="J9" t="n">
         <v>112648.59</v>
       </c>
+      <c r="K9" t="n">
+        <v>110614.21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +806,9 @@
       <c r="J10" t="n">
         <v>43704.72</v>
       </c>
+      <c r="K10" t="n">
+        <v>43628.46</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -811,6 +843,9 @@
       <c r="J11" t="n">
         <v>742.22</v>
       </c>
+      <c r="K11" t="n">
+        <v>748.73</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -844,6 +879,9 @@
       </c>
       <c r="J12" t="n">
         <v>77154.67999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>77119.42999999999</v>
       </c>
     </row>
     <row r="13">
@@ -867,6 +905,7 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -901,6 +940,9 @@
       <c r="J14" t="n">
         <v>3848.85</v>
       </c>
+      <c r="K14" t="n">
+        <v>3982.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -935,6 +977,9 @@
       <c r="J15" t="n">
         <v>84040.17999999999</v>
       </c>
+      <c r="K15" t="n">
+        <v>83698.44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -968,6 +1013,9 @@
       </c>
       <c r="J16" t="n">
         <v>1008482.15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1004381.25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>66324.53999999999</v>
       </c>
+      <c r="L2" t="n">
+        <v>67128.39999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>378741.67</v>
       </c>
+      <c r="L3" t="n">
+        <v>284347.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>86092.92999999999</v>
       </c>
+      <c r="L4" t="n">
+        <v>86071.36</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,6 +645,9 @@
       </c>
       <c r="K5" t="n">
         <v>5145.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5116.35</v>
       </c>
     </row>
     <row r="6">
@@ -667,6 +684,9 @@
       <c r="K6" t="n">
         <v>2129.52</v>
       </c>
+      <c r="L6" t="n">
+        <v>2554.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -702,6 +722,9 @@
       <c r="K7" t="n">
         <v>227153.35</v>
       </c>
+      <c r="L7" t="n">
+        <v>226557</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +760,9 @@
       <c r="K8" t="n">
         <v>2700.61</v>
       </c>
+      <c r="L8" t="n">
+        <v>2582.93</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -772,6 +798,9 @@
       <c r="K9" t="n">
         <v>110614.21</v>
       </c>
+      <c r="L9" t="n">
+        <v>111698.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -809,6 +838,9 @@
       <c r="K10" t="n">
         <v>43628.46</v>
       </c>
+      <c r="L10" t="n">
+        <v>44081.83</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -846,6 +878,9 @@
       <c r="K11" t="n">
         <v>748.73</v>
       </c>
+      <c r="L11" t="n">
+        <v>661.4400000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -882,6 +917,9 @@
       </c>
       <c r="K12" t="n">
         <v>77119.42999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>62342.55</v>
       </c>
     </row>
     <row r="13">
@@ -906,6 +944,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -943,6 +982,9 @@
       <c r="K14" t="n">
         <v>3982.2</v>
       </c>
+      <c r="L14" t="n">
+        <v>4088.07</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -980,6 +1022,9 @@
       <c r="K15" t="n">
         <v>83698.44</v>
       </c>
+      <c r="L15" t="n">
+        <v>74769.14999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1016,6 +1061,9 @@
       </c>
       <c r="K16" t="n">
         <v>1004381.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>897229.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>67128.39999999999</v>
       </c>
+      <c r="M2" t="n">
+        <v>67163.44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>284347.38</v>
       </c>
+      <c r="M3" t="n">
+        <v>284578.56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>86071.36</v>
       </c>
+      <c r="M4" t="n">
+        <v>86472.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -648,6 +662,9 @@
       </c>
       <c r="L5" t="n">
         <v>5116.35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5136.81</v>
       </c>
     </row>
     <row r="6">
@@ -687,6 +704,9 @@
       <c r="L6" t="n">
         <v>2554.2</v>
       </c>
+      <c r="M6" t="n">
+        <v>2503.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -725,6 +745,9 @@
       <c r="L7" t="n">
         <v>226557</v>
       </c>
+      <c r="M7" t="n">
+        <v>227127.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +786,9 @@
       <c r="L8" t="n">
         <v>2582.93</v>
       </c>
+      <c r="M8" t="n">
+        <v>2540.29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -801,6 +827,9 @@
       <c r="L9" t="n">
         <v>111698.35</v>
       </c>
+      <c r="M9" t="n">
+        <v>110810.79</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -841,6 +870,9 @@
       <c r="L10" t="n">
         <v>44081.83</v>
       </c>
+      <c r="M10" t="n">
+        <v>43824.29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -881,6 +913,9 @@
       <c r="L11" t="n">
         <v>661.4400000000001</v>
       </c>
+      <c r="M11" t="n">
+        <v>650.34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -920,6 +955,9 @@
       </c>
       <c r="L12" t="n">
         <v>62342.55</v>
+      </c>
+      <c r="M12" t="n">
+        <v>62409.74</v>
       </c>
     </row>
     <row r="13">
@@ -945,6 +983,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -985,6 +1024,9 @@
       <c r="L14" t="n">
         <v>4088.07</v>
       </c>
+      <c r="M14" t="n">
+        <v>4025.81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1025,6 +1067,9 @@
       <c r="L15" t="n">
         <v>74769.14999999999</v>
       </c>
+      <c r="M15" t="n">
+        <v>74770.28999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1064,6 +1109,9 @@
       </c>
       <c r="L16" t="n">
         <v>897229.86</v>
+      </c>
+      <c r="M16" t="n">
+        <v>897243.4300000001</v>
       </c>
     </row>
   </sheetData>
